--- a/excel-parser/src/main/resources/excel/test.xlsx
+++ b/excel-parser/src/main/resources/excel/test.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
   <si>
     <r>
       <t>角色I</t>
@@ -658,6 +658,14 @@
   </si>
   <si>
     <t>attr</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试3</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1938,7 +1946,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1946,13 +1954,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:L93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" sqref="A1:A1048576"/>
+      <selection pane="bottomRight" activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1963,7 +1971,7 @@
     <col min="10" max="10" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1979,8 +1987,11 @@
       <c r="K1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1996,13 +2007,16 @@
       <c r="K2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="33.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
       <c r="B3" s="9"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>101</v>
       </c>
@@ -2027,8 +2041,11 @@
       <c r="K4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>101</v>
       </c>
@@ -2052,8 +2069,11 @@
       <c r="K5" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>101</v>
       </c>
@@ -2077,8 +2097,11 @@
       <c r="K6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>101</v>
       </c>
@@ -2102,8 +2125,11 @@
       <c r="K7" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>101</v>
       </c>
@@ -2127,8 +2153,11 @@
       <c r="K8" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>101</v>
       </c>
@@ -2152,8 +2181,11 @@
       <c r="K9" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>101</v>
       </c>
@@ -2177,8 +2209,11 @@
       <c r="K10" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>101</v>
       </c>
@@ -2202,8 +2237,11 @@
       <c r="K11" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>101</v>
       </c>
@@ -2227,8 +2265,11 @@
       <c r="K12" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>101</v>
       </c>
@@ -2252,8 +2293,11 @@
       <c r="K13" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>102</v>
       </c>
@@ -2279,8 +2323,11 @@
       <c r="K14" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>102</v>
       </c>
@@ -2306,8 +2353,11 @@
       <c r="K15" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>102</v>
       </c>
@@ -2333,8 +2383,11 @@
       <c r="K16" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>102</v>
       </c>
@@ -2360,8 +2413,11 @@
       <c r="K17" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>102</v>
       </c>
@@ -2387,8 +2443,11 @@
       <c r="K18" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>102</v>
       </c>
@@ -2414,8 +2473,11 @@
       <c r="K19" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>102</v>
       </c>
@@ -2441,8 +2503,11 @@
       <c r="K20" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>102</v>
       </c>
@@ -2468,8 +2533,11 @@
       <c r="K21" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>102</v>
       </c>
@@ -2495,8 +2563,11 @@
       <c r="K22" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>102</v>
       </c>
@@ -2522,8 +2593,11 @@
       <c r="K23" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>103</v>
       </c>
@@ -2549,8 +2623,11 @@
       <c r="K24" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>103</v>
       </c>
@@ -2576,8 +2653,11 @@
       <c r="K25" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>103</v>
       </c>
@@ -2603,8 +2683,11 @@
       <c r="K26" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>103</v>
       </c>
@@ -2630,8 +2713,11 @@
       <c r="K27" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>103</v>
       </c>
@@ -2657,8 +2743,11 @@
       <c r="K28" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>103</v>
       </c>
@@ -2684,8 +2773,11 @@
       <c r="K29" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>103</v>
       </c>
@@ -2711,8 +2803,11 @@
       <c r="K30" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>103</v>
       </c>
@@ -2738,8 +2833,11 @@
       <c r="K31" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>103</v>
       </c>
@@ -2765,8 +2863,11 @@
       <c r="K32" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>103</v>
       </c>
@@ -2792,8 +2893,11 @@
       <c r="K33" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>104</v>
       </c>
@@ -2818,8 +2922,11 @@
       <c r="K34" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <v>104</v>
       </c>
@@ -2843,8 +2950,11 @@
       <c r="K35" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>104</v>
       </c>
@@ -2868,8 +2978,11 @@
       <c r="K36" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
         <v>104</v>
       </c>
@@ -2893,8 +3006,11 @@
       <c r="K37" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <v>104</v>
       </c>
@@ -2918,8 +3034,11 @@
       <c r="K38" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
         <v>104</v>
       </c>
@@ -2943,8 +3062,11 @@
       <c r="K39" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>104</v>
       </c>
@@ -2968,8 +3090,11 @@
       <c r="K40" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
         <v>104</v>
       </c>
@@ -2993,8 +3118,11 @@
       <c r="K41" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <v>104</v>
       </c>
@@ -3018,8 +3146,11 @@
       <c r="K42" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
         <v>104</v>
       </c>
@@ -3043,8 +3174,11 @@
       <c r="K43" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>105</v>
       </c>
@@ -3070,8 +3204,11 @@
       <c r="K44" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>105</v>
       </c>
@@ -3097,8 +3234,11 @@
       <c r="K45" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>105</v>
       </c>
@@ -3124,8 +3264,11 @@
       <c r="K46" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>105</v>
       </c>
@@ -3151,8 +3294,11 @@
       <c r="K47" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>105</v>
       </c>
@@ -3178,8 +3324,11 @@
       <c r="K48" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>105</v>
       </c>
@@ -3205,8 +3354,11 @@
       <c r="K49" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>105</v>
       </c>
@@ -3232,8 +3384,11 @@
       <c r="K50" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>105</v>
       </c>
@@ -3259,8 +3414,11 @@
       <c r="K51" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>105</v>
       </c>
@@ -3286,8 +3444,11 @@
       <c r="K52" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>105</v>
       </c>
@@ -3313,8 +3474,11 @@
       <c r="K53" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
         <v>106</v>
       </c>
@@ -3339,8 +3503,11 @@
       <c r="K54" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
         <v>106</v>
       </c>
@@ -3364,8 +3531,11 @@
       <c r="K55" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
         <v>106</v>
       </c>
@@ -3389,8 +3559,11 @@
       <c r="K56" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
         <v>106</v>
       </c>
@@ -3414,8 +3587,11 @@
       <c r="K57" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
         <v>106</v>
       </c>
@@ -3439,8 +3615,11 @@
       <c r="K58" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59" s="3">
         <v>106</v>
       </c>
@@ -3464,8 +3643,11 @@
       <c r="K59" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
         <v>106</v>
       </c>
@@ -3489,8 +3671,11 @@
       <c r="K60" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A61" s="3">
         <v>106</v>
       </c>
@@ -3514,8 +3699,11 @@
       <c r="K61" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
         <v>106</v>
       </c>
@@ -3539,8 +3727,11 @@
       <c r="K62" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63" s="3">
         <v>106</v>
       </c>
@@ -3564,8 +3755,11 @@
       <c r="K63" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A64">
         <f t="shared" ref="A64:A93" si="5">A54+1</f>
         <v>107</v>
@@ -3592,8 +3786,11 @@
       <c r="K64" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A65">
         <f t="shared" si="5"/>
         <v>107</v>
@@ -3620,8 +3817,11 @@
       <c r="K65" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A66">
         <f t="shared" si="5"/>
         <v>107</v>
@@ -3648,8 +3848,11 @@
       <c r="K66" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A67">
         <f t="shared" si="5"/>
         <v>107</v>
@@ -3676,8 +3879,11 @@
       <c r="K67" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A68">
         <f t="shared" si="5"/>
         <v>107</v>
@@ -3704,8 +3910,11 @@
       <c r="K68" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A69">
         <f t="shared" si="5"/>
         <v>107</v>
@@ -3732,8 +3941,11 @@
       <c r="K69" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A70">
         <f t="shared" si="5"/>
         <v>107</v>
@@ -3760,8 +3972,11 @@
       <c r="K70" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A71">
         <f t="shared" si="5"/>
         <v>107</v>
@@ -3788,8 +4003,11 @@
       <c r="K71" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A72">
         <f t="shared" si="5"/>
         <v>107</v>
@@ -3816,8 +4034,11 @@
       <c r="K72" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A73">
         <f t="shared" si="5"/>
         <v>107</v>
@@ -3844,8 +4065,11 @@
       <c r="K73" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A74">
         <f t="shared" si="5"/>
         <v>108</v>
@@ -3872,8 +4096,11 @@
       <c r="K74" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A75">
         <f t="shared" si="5"/>
         <v>108</v>
@@ -3900,8 +4127,11 @@
       <c r="K75" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A76">
         <f t="shared" si="5"/>
         <v>108</v>
@@ -3928,8 +4158,11 @@
       <c r="K76" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A77">
         <f t="shared" si="5"/>
         <v>108</v>
@@ -3956,8 +4189,11 @@
       <c r="K77" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A78">
         <f t="shared" si="5"/>
         <v>108</v>
@@ -3984,8 +4220,11 @@
       <c r="K78" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A79">
         <f t="shared" si="5"/>
         <v>108</v>
@@ -4012,8 +4251,11 @@
       <c r="K79" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A80">
         <f t="shared" si="5"/>
         <v>108</v>
@@ -4040,8 +4282,11 @@
       <c r="K80" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A81">
         <f t="shared" si="5"/>
         <v>108</v>
@@ -4068,8 +4313,11 @@
       <c r="K81" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A82">
         <f t="shared" si="5"/>
         <v>108</v>
@@ -4096,8 +4344,11 @@
       <c r="K82" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A83">
         <f t="shared" si="5"/>
         <v>108</v>
@@ -4124,8 +4375,11 @@
       <c r="K83" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A84">
         <f t="shared" si="5"/>
         <v>109</v>
@@ -4152,8 +4406,11 @@
       <c r="K84" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A85">
         <f t="shared" si="5"/>
         <v>109</v>
@@ -4180,8 +4437,11 @@
       <c r="K85" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A86">
         <f t="shared" si="5"/>
         <v>109</v>
@@ -4208,8 +4468,11 @@
       <c r="K86" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A87">
         <f t="shared" si="5"/>
         <v>109</v>
@@ -4236,8 +4499,11 @@
       <c r="K87" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A88">
         <f t="shared" si="5"/>
         <v>109</v>
@@ -4264,8 +4530,11 @@
       <c r="K88" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A89">
         <f t="shared" si="5"/>
         <v>109</v>
@@ -4292,8 +4561,11 @@
       <c r="K89" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A90">
         <f t="shared" si="5"/>
         <v>109</v>
@@ -4320,8 +4592,11 @@
       <c r="K90" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A91">
         <f t="shared" si="5"/>
         <v>109</v>
@@ -4348,8 +4623,11 @@
       <c r="K91" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A92">
         <f t="shared" si="5"/>
         <v>109</v>
@@ -4376,8 +4654,11 @@
       <c r="K92" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A93">
         <f t="shared" si="5"/>
         <v>109</v>
@@ -4403,6 +4684,9 @@
       </c>
       <c r="K93" t="s">
         <v>185</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
